--- a/backend/fms_core/static/submission_templates/Normalization_v3_14_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_v3_14_0.xlsx
@@ -8,11 +8,6 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mixUn5nDQW9MpI2y3bdbqo+WjVD4w=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -24,18 +19,10 @@
   <commentList>
     <comment authorId="0" ref="R7">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAkF-QG3Y
-Microsoft Office User    (2022-11-15 18:07:16)
-Desired concentration = Volume Used * Initial Concentration / Volume</t>
+        <t xml:space="preserve">Desired concentration = (Volume Used * Initial Concentration) / Volume</t>
       </text>
     </comment>
   </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mizVb3zK5cBHuV+DxuTo+58f5CuQw=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
@@ -75,7 +62,7 @@
     <t>Template Version</t>
   </si>
   <si>
-    <t>3.10.0</t>
+    <t>3.14.0</t>
   </si>
   <si>
     <t>*</t>
@@ -96,9 +83,6 @@
     <t>Source Container Coord</t>
   </si>
   <si>
-    <t>Sample Initial Concentration</t>
-  </si>
-  <si>
     <t>Robot Source Container</t>
   </si>
   <si>
@@ -130,6 +114,9 @@
   </si>
   <si>
     <t>Source Depleted</t>
+  </si>
+  <si>
+    <t>Initial Conc. (ng/uL)</t>
   </si>
   <si>
     <t>Volume Used (uL)</t>
@@ -1513,7 +1500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1544,6 +1531,12 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1896,12 +1889,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1934,6 +1930,9 @@
     <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="9" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,8 +1961,7 @@
     <xf borderId="23" fillId="0" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="24" fillId="0" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2189,14 +2187,14 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="27.88"/>
     <col customWidth="1" min="3" max="3" width="27.38"/>
-    <col customWidth="1" min="4" max="4" width="27.63"/>
-    <col customWidth="1" min="5" max="6" width="22.63"/>
-    <col customWidth="1" min="7" max="7" width="26.88"/>
-    <col customWidth="1" min="8" max="10" width="26.13"/>
-    <col customWidth="1" min="11" max="11" width="25.5"/>
-    <col customWidth="1" min="12" max="12" width="24.38"/>
-    <col customWidth="1" min="13" max="14" width="33.5"/>
-    <col customWidth="1" min="15" max="15" width="16.13"/>
+    <col customWidth="1" min="4" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="26.88"/>
+    <col customWidth="1" min="7" max="9" width="26.13"/>
+    <col customWidth="1" min="10" max="10" width="25.5"/>
+    <col customWidth="1" min="11" max="11" width="24.38"/>
+    <col customWidth="1" min="12" max="13" width="33.5"/>
+    <col customWidth="1" min="14" max="14" width="16.13"/>
+    <col customWidth="1" min="15" max="15" width="22.88"/>
     <col customWidth="1" min="16" max="16" width="16.5"/>
     <col customWidth="1" min="17" max="17" width="16.88"/>
     <col customWidth="1" min="18" max="18" width="18.38"/>
@@ -2240,10 +2238,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2267,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
@@ -2291,10 +2289,10 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2313,2621 +2311,2621 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AK5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="5" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AK6" s="4"/>
+      <c r="W6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AK6" s="5"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="str">
-        <f t="shared" ref="R8:R103" si="1">IFERROR(D8*P8/Q8, "")</f>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="str">
+        <f t="shared" ref="R8:R103" si="1">IFERROR(O8*P8/Q8, "")</f>
         <v/>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="str">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24" t="str">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24" t="str">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24" t="str">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24" t="str">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24" t="str">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24" t="str">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24" t="str">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24" t="str">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24" t="str">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24" t="str">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24" t="str">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24" t="str">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24" t="str">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24" t="str">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24" t="str">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24" t="str">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S25" s="24"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24" t="str">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S26" s="24"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24" t="str">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S27" s="24"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24" t="str">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24" t="str">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24" t="str">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S30" s="24"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24" t="str">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24" t="str">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24" t="str">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S33" s="24"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24" t="str">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S34" s="24"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24" t="str">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S35" s="24"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24" t="str">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S36" s="24"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24" t="str">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S37" s="24"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24" t="str">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S38" s="24"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24" t="str">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S39" s="24"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24" t="str">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S40" s="24"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24" t="str">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S41" s="24"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24" t="str">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S42" s="24"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24" t="str">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S43" s="24"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24" t="str">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S44" s="24"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24" t="str">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S45" s="24"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24" t="str">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S46" s="24"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24" t="str">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S47" s="24"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24" t="str">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S48" s="24"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24" t="str">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S49" s="24"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24" t="str">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S50" s="24"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24" t="str">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S51" s="24"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24" t="str">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S52" s="24"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24" t="str">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S53" s="24"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24" t="str">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S54" s="24"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24" t="str">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S55" s="24"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24" t="str">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S56" s="24"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24" t="str">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S57" s="24"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24" t="str">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S58" s="24"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24" t="str">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S59" s="24"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24" t="str">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S60" s="24"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24" t="str">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S61" s="24"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24" t="str">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S62" s="24"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24" t="str">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S63" s="24"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24" t="str">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S64" s="24"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24" t="str">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S65" s="24"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24" t="str">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24" t="str">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S67" s="24"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24" t="str">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S68" s="24"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24" t="str">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24" t="str">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S70" s="24"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24" t="str">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S71" s="24"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24" t="str">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S72" s="24"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24" t="str">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S73" s="24"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24" t="str">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S74" s="24"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24" t="str">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S75" s="24"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24" t="str">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S76" s="24"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24" t="str">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S77" s="24"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24" t="str">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S78" s="24"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24" t="str">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S79" s="24"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24" t="str">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S80" s="24"/>
-      <c r="T80" s="25"/>
-      <c r="U80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24" t="str">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S81" s="24"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="26"/>
+      <c r="S81" s="26"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24" t="str">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S82" s="24"/>
-      <c r="T82" s="25"/>
-      <c r="U82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24" t="str">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S83" s="24"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24" t="str">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S84" s="24"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24" t="str">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S85" s="24"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="16"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24" t="str">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S86" s="24"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24" t="str">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S87" s="24"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24" t="str">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S88" s="24"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24" t="str">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S89" s="24"/>
-      <c r="T89" s="25"/>
-      <c r="U89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24" t="str">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S90" s="24"/>
-      <c r="T90" s="25"/>
-      <c r="U90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24" t="str">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S91" s="24"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24" t="str">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S92" s="24"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="23"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24" t="str">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S93" s="24"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24" t="str">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S94" s="24"/>
-      <c r="T94" s="25"/>
-      <c r="U94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24" t="str">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S95" s="24"/>
-      <c r="T95" s="25"/>
-      <c r="U95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24" t="str">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S96" s="24"/>
-      <c r="T96" s="25"/>
-      <c r="U96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24" t="str">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S97" s="24"/>
-      <c r="T97" s="25"/>
-      <c r="U97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24" t="str">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S98" s="24"/>
-      <c r="T98" s="25"/>
-      <c r="U98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="16"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24" t="str">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S99" s="24"/>
-      <c r="T99" s="25"/>
-      <c r="U99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24" t="str">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S100" s="24"/>
-      <c r="T100" s="25"/>
-      <c r="U100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24" t="str">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S101" s="24"/>
-      <c r="T101" s="25"/>
-      <c r="U101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="16"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24" t="str">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S102" s="24"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="27"/>
+      <c r="U102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="27"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="33"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="35" t="str">
+      <c r="A103" s="29"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="37"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="38"/>
     </row>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
@@ -5828,14 +5826,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L103">
-      <formula1>Index!$E$2:$E$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O103">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N103">
       <formula1>"YES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C103 H8:H103 N8:N103">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C103 G8:G103 M8:M103">
       <formula1>Index!$A$2:$A$97</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K103">
+      <formula1>Index!$E$2:$E$11</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -5865,1585 +5863,1585 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -7451,127 +7449,127 @@
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -7579,127 +7577,127 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -7707,127 +7705,127 @@
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -7835,127 +7833,127 @@
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="4" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -7963,127 +7961,127 @@
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -8091,127 +8089,127 @@
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="4" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -8219,127 +8217,127 @@
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="4" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -8347,127 +8345,127 @@
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -8475,127 +8473,127 @@
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -8603,127 +8601,127 @@
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -8731,127 +8729,127 @@
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="4" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="4" t="s">
         <v>403</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -8859,127 +8857,127 @@
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -8987,127 +8985,127 @@
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D306" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D307" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D315" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -9115,127 +9113,127 @@
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D319" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" s="4" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -9243,127 +9241,127 @@
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="4" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D340" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D342" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="D343" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D345" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D349" s="2" t="s">
@@ -9371,127 +9369,127 @@
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D350" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="3" t="s">
+      <c r="C351" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D351" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="3" t="s">
+      <c r="C352" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="D352" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="D353" s="4" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="3" t="s">
+      <c r="C354" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="3" t="s">
+      <c r="C355" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="3" t="s">
+      <c r="C356" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="3" t="s">
+      <c r="C357" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="3" t="s">
+      <c r="C358" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="3" t="s">
+      <c r="C359" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="3" t="s">
+      <c r="C360" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="3" t="s">
+      <c r="C361" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="3" t="s">
+      <c r="C362" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D362" s="3" t="s">
+      <c r="D362" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D363" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="3" t="s">
+      <c r="C364" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="D364" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="3" t="s">
+      <c r="C365" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D365" s="2" t="s">
@@ -9499,127 +9497,127 @@
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="3" t="s">
+      <c r="C366" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="D366" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="3" t="s">
+      <c r="C367" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="D367" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="3" t="s">
+      <c r="C368" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="D368" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="3" t="s">
+      <c r="C369" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D369" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="3" t="s">
+      <c r="C370" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D370" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D371" s="3" t="s">
+      <c r="D371" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D372" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="3" t="s">
+      <c r="C373" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="D373" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="3" t="s">
+      <c r="C374" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="D374" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="3" t="s">
+      <c r="C375" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D375" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="3" t="s">
+      <c r="C376" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D376" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D377" s="3" t="s">
+      <c r="D377" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="3" t="s">
+      <c r="C378" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D378" s="3" t="s">
+      <c r="D378" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="3" t="s">
+      <c r="C379" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D379" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="3" t="s">
+      <c r="C380" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D380" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D381" s="2" t="s">
@@ -9627,34 +9625,34 @@
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="3" t="s">
+      <c r="C382" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D382" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D383" s="3" t="s">
+      <c r="D383" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D384" s="3" t="s">
+      <c r="D384" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="3" t="s">
+      <c r="C385" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D385" s="3" t="s">
+      <c r="D385" s="4" t="s">
         <v>435</v>
       </c>
     </row>
